--- a/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
+++ b/InputData/trans/BRAaCTSC/BAU Rng Anxiety and Charge Time Shadow Costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BRAaCTSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigws\Documents\Dropbox\재현\EPS\trans\BRAaCTSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3819D96D-D99E-46F3-B2F6-9389718A18C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37FABDA-06AF-4D7E-9646-3F88AD1AE8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -58,10 +58,11 @@
     <t>Cost ($/vehicle)</t>
   </si>
   <si>
-    <t>In the US, we set this value to 0.</t>
-  </si>
-  <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>In Korea, we set this value to 0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -69,13 +70,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,8 +84,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,7 +119,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -119,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -400,52 +408,54 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -460,13 +470,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -570,7 +580,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -707,6 +717,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>